--- a/Test_Document/Summary_of_op_amp.xlsx
+++ b/Test_Document/Summary_of_op_amp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\风之子zky\Desktop\全国电赛\Test_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632FF51D-16BE-48AB-8BE2-1D3940A41B84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711196D-DC62-4D00-9541-691323C4D46F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C694059F-9A70-491D-8C62-0AD289285948}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>AD8009</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,26 @@
   </si>
   <si>
     <t>10MHz时，1.2Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +629,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -832,15 +852,34 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="C7" s="1">
+        <v>4300</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">

--- a/Test_Document/Summary_of_op_amp.xlsx
+++ b/Test_Document/Summary_of_op_amp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\风之子zky\Desktop\全国电赛\Test_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8711196D-DC62-4D00-9541-691323C4D46F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4F06B-CA21-449C-8630-FF0D9F51D079}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C694059F-9A70-491D-8C62-0AD289285948}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>AD8009</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;60MHz时&gt;3.0Vpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AD8099</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>140M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>210M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPA695</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20dB/10倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10MHz时，1.2Vpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>THS4271</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10MHz时，3.2Vpp，随频率增高迅速下降</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,47 +194,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>220M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>270M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>210M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3倍（可调）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10MHz时，1.2Vpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3 ,  220M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3 ,  270M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3 ,  210M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3 ,   250M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=5 ,  120M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=5 ,  170M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=5 ,  70M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=5 ,   170M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大信号3dB带宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;60MHz时，&gt;3.0Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MHz，2.1Vpp，随频率增高下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低噪性能略逊8009和6268，可做输出级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3， 80M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G=3， 150M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MHz时，1.5Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA424D-92EE-443B-9431-63A64898CC04}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -643,9 +679,9 @@
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -671,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -697,25 +733,25 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -735,122 +771,99 @@
         <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4300</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>4300</v>
@@ -858,74 +871,78 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
+      <c r="E7" s="1">
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>1500</v>
+        <v>4300</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
       </c>
-      <c r="E8" s="1">
-        <v>50</v>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>830</v>
+        <v>1500</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -934,96 +951,121 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1">
+        <v>830</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1246,6 +1288,19 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_Document/Summary_of_op_amp.xlsx
+++ b/Test_Document/Summary_of_op_amp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\风之子zky\Desktop\全国电赛\Test_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4F06B-CA21-449C-8630-FF0D9F51D079}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F541E-70A9-4950-B847-2F3DC03A48A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C694059F-9A70-491D-8C62-0AD289285948}"/>
   </bookViews>
@@ -246,22 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8Vpp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>240M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +279,22 @@
   </si>
   <si>
     <t>330M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16dB/6倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MHz，2.6Vpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可做输出级使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,7 +665,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -821,13 +821,13 @@
         <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
@@ -839,7 +839,7 @@
         <v>52</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -913,25 +913,25 @@
         <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -966,7 +966,7 @@
         <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>25</v>
@@ -1013,10 +1013,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1052,10 +1052,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>

--- a/Test_Document/Summary_of_op_amp.xlsx
+++ b/Test_Document/Summary_of_op_amp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\风之子zky\Desktop\全国电赛\Test_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F541E-70A9-4950-B847-2F3DC03A48A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B44D6-ED98-4F77-BC71-4BBFDD9793BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C694059F-9A70-491D-8C62-0AD289285948}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>AD8009</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,18 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>压摆率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号源输入阻抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出负载阻抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大信号1dB带宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,6 +279,54 @@
   </si>
   <si>
     <t>可做输出级使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压摆率  V/us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号源输入阻抗/Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出阻抗/Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10MHz，3.2Vpp，随频率增高下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低噪性能一般，当个高速加法器用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12dB/4倍（可调）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,6 +386,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,7 +473,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -662,61 +762,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA424D-92EE-443B-9431-63A64898CC04}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.109375" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
     <col min="13" max="13" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,31 +837,32 @@
         <v>50</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,83 +876,94 @@
         <v>50</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -857,10 +976,13 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -875,30 +997,31 @@
         <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -909,40 +1032,39 @@
       <c r="D8" s="1">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -951,149 +1073,194 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>830</v>
-      </c>
-      <c r="D10" s="1">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="M10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1">
+        <v>830</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="1">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1105,8 +1272,10 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
